--- a/data/water.xlsx
+++ b/data/water.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211" iterate="1" iterateCount="10000"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>account</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,6 +30,38 @@
   </si>
   <si>
     <t>15067126937</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>marketing_account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15067126930</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15067126931</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15067126932</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15067126933</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>general_audit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>general_review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>director_to_confirm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -380,33 +413,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/water.xlsx
+++ b/data/water.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" iterate="1" iterateCount="10000"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
@@ -41,7 +40,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15067126931</t>
+    <t>general_audit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>general_review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>director_to_confirm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -53,15 +60,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>general_audit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>general_review</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>director_to_confirm</t>
+    <t>15067126934</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,7 +415,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -441,13 +440,13 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -461,13 +460,13 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/water.xlsx
+++ b/data/water.xlsx
@@ -36,10 +36,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15067126930</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>general_audit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -61,6 +57,10 @@
   </si>
   <si>
     <t>15067126934</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15067126931</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,7 +415,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -440,13 +440,13 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -457,16 +457,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
